--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/62_Niğde_2025.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/62_Niğde_2025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4856DA73-92ED-4E6D-A541-AC42AEAF05B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BED1AB68-F4D8-4130-9627-6A66D989B9CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="679" xr2:uid="{84C4676E-4D2B-4866-9FDC-04D6BF9CD42B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="679" xr2:uid="{F2CDE17A-6579-44E0-99EC-6BB09643E881}"/>
   </bookViews>
   <sheets>
     <sheet name="HAZİRAN" sheetId="140" r:id="rId1"/>
@@ -842,14 +842,14 @@
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{B77BE71D-6CED-41D1-989C-82DF724B7F48}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{9411FC7B-64A6-4374-8B4F-0A4DFF24A21C}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{CD9298BA-4EC0-47C6-A377-A5B7A60EC64E}"/>
-    <cellStyle name="Normal 3 2" xfId="4" xr:uid="{AA9AACAD-C1C7-43BD-9C37-6AF872572F51}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{EE1FD2C6-8807-4CF8-BEB8-09D41AE09D27}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{5FBE4D1C-D1E1-4A2B-B367-3984D32E4D48}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{D6739235-67E2-4ABA-8C32-C95A5F593DD9}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{4F201395-ACA1-461F-8C97-58A33FC88739}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{EA781F2F-3CFF-48D2-B445-5B511D3FBD08}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{79BBFB62-B375-4947-ADA1-813AAE8598C3}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{F2D91712-0726-4289-A5D4-D26D024489AA}"/>
+    <cellStyle name="Normal 3 2" xfId="4" xr:uid="{5D4A55E3-FB77-48F6-851E-0E54BE1AD138}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{F32F695D-9B2A-4065-8554-90B08E841482}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{633D612F-D7C2-4057-AFBE-31AE6819AB01}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{FDFF4AAC-4E26-408A-BC68-B60779A7BD9A}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{52657B3F-68FE-40CC-AE83-BE9C38B677D6}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1219,7 +1219,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDA2D758-B599-4E83-BDC7-5296DA4D67F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4862BD90-9F15-4A5C-9808-57D36654669D}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2470,7 +2470,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DF82999-99C6-4AD1-BA6C-B07F5A6F51CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D54660D2-DCDC-48D1-A3A6-E129897D7AD8}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3727,7 +3727,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC872EB-51E0-41ED-9BC1-6DE322EAE70C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B60D5BD-58D6-4502-A896-9BEC42732E80}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -4984,7 +4984,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9F9A875-D574-410C-ACB0-6322FB9C48CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BDBA1D-86EF-4611-9DE3-7B0257788761}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6237,7 +6237,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A32D507C-0C13-4C56-AA46-100BC937BD59}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3998DB88-22EC-465C-94B5-E081149C7DD7}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7476,7 +7476,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F551F34A-F39B-47ED-9F56-D156C8EC2E2A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EAE57EF-E946-4724-8529-C796A181C460}">
   <sheetPr codeName="Sayfa12"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
